--- a/SERVER/Common/Data/excel/NpcDefine.xlsx
+++ b/SERVER/Common/Data/excel/NpcDefine.xlsx
@@ -46,10 +46,10 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>村长达萨贝</t>
+    <t>铁匠达萨贝</t>
   </si>
   <si>
-    <t>村长</t>
+    <t>铁匠</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>

--- a/SERVER/Common/Data/excel/NpcDefine.xlsx
+++ b/SERVER/Common/Data/excel/NpcDefine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Decs</t>
   </si>
   <si>
+    <t>StartDialogueId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>介绍</t>
+  </si>
+  <si>
+    <t>起始对话id</t>
   </si>
   <si>
     <t>铁匠达萨贝</t>
@@ -1013,22 +1019,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.9166666666667" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="20.0833333333333" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,47 +1048,59 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>2001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:3">

--- a/SERVER/Common/Data/excel/NpcDefine.xlsx
+++ b/SERVER/Common/Data/excel/NpcDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22700" windowHeight="6640"/>
+    <workbookView windowWidth="22920" windowHeight="7190"/>
   </bookViews>
   <sheets>
     <sheet name="NpcDefine" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="4"/>
